--- a/mosip_master/xlsx/template.xlsx
+++ b/mosip_master/xlsx/template.xlsx
@@ -3904,11 +3904,11 @@
   </sheetPr>
   <dimension ref="A1:M467"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K468" activeCellId="0" sqref="K468"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.57"/>
@@ -22696,8 +22696,7 @@
       <c r="J465" s="0" t="s">
         <v>1040</v>
       </c>
-      <c r="K465" s="0" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K465" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L465" s="0" t="s">

--- a/mosip_master/xlsx/template.xlsx
+++ b/mosip_master/xlsx/template.xlsx
@@ -3904,11 +3904,11 @@
   </sheetPr>
   <dimension ref="A1:M467"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K468" activeCellId="0" sqref="K468"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.57"/>
@@ -22696,7 +22696,8 @@
       <c r="J465" s="0" t="s">
         <v>1040</v>
       </c>
-      <c r="K465" s="2" t="b">
+      <c r="K465" s="0" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L465" s="0" t="s">

--- a/mosip_master/xlsx/template.xlsx
+++ b/mosip_master/xlsx/template.xlsx
@@ -3904,11 +3904,11 @@
   </sheetPr>
   <dimension ref="A1:M467"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J456" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K473" activeCellId="0" sqref="K473"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.57"/>
@@ -3966,7 +3966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>13</v>
       </c>
@@ -3997,8 +3997,7 @@
       <c r="J2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K2" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L2" s="0" t="s">
@@ -4008,7 +4007,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>23</v>
       </c>
@@ -4039,8 +4038,7 @@
       <c r="J3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K3" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L3" s="0" t="s">
@@ -4050,7 +4048,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>27</v>
       </c>
@@ -4081,8 +4079,7 @@
       <c r="J4" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L4" s="0" t="s">
@@ -4092,7 +4089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
@@ -4123,10 +4120,7 @@
       <c r="J5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K5" s="2"/>
       <c r="L5" s="0" t="s">
         <v>21</v>
       </c>
@@ -4134,7 +4128,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>23</v>
       </c>
@@ -4165,10 +4159,7 @@
       <c r="J6" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K6" s="2"/>
       <c r="L6" s="0" t="s">
         <v>21</v>
       </c>
@@ -4176,7 +4167,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>27</v>
       </c>
@@ -4207,10 +4198,7 @@
       <c r="J7" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K7" s="2"/>
       <c r="L7" s="0" t="s">
         <v>21</v>
       </c>
@@ -4218,7 +4206,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="44.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>13</v>
       </c>
@@ -4249,10 +4237,7 @@
       <c r="J8" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K8" s="2"/>
       <c r="L8" s="0" t="s">
         <v>21</v>
       </c>
@@ -4260,7 +4245,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>23</v>
       </c>
@@ -4291,10 +4276,7 @@
       <c r="J9" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K9" s="2"/>
       <c r="L9" s="0" t="s">
         <v>21</v>
       </c>
@@ -4302,7 +4284,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>27</v>
       </c>
@@ -4333,10 +4315,7 @@
       <c r="J10" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K10" s="2"/>
       <c r="L10" s="0" t="s">
         <v>21</v>
       </c>
@@ -4344,7 +4323,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>47</v>
       </c>
@@ -4375,8 +4354,7 @@
       <c r="J11" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K11" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L11" s="0" t="s">
@@ -4386,7 +4364,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>52</v>
       </c>
@@ -4417,8 +4395,7 @@
       <c r="J12" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="K12" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K12" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L12" s="0" t="s">
@@ -4428,7 +4405,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>56</v>
       </c>
@@ -4459,8 +4436,7 @@
       <c r="J13" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="K13" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K13" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L13" s="0" t="s">
@@ -4470,7 +4446,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>60</v>
       </c>
@@ -4501,8 +4477,7 @@
       <c r="J14" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="K14" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K14" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L14" s="0" t="s">
@@ -4512,7 +4487,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>64</v>
       </c>
@@ -4543,8 +4518,7 @@
       <c r="J15" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="K15" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K15" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L15" s="0" t="s">
@@ -4554,7 +4528,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>68</v>
       </c>
@@ -4585,8 +4559,7 @@
       <c r="J16" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="K16" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K16" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L16" s="0" t="s">
@@ -4596,7 +4569,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>72</v>
       </c>
@@ -4627,8 +4600,7 @@
       <c r="J17" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="K17" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K17" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L17" s="0" t="s">
@@ -4638,7 +4610,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>76</v>
       </c>
@@ -4669,8 +4641,7 @@
       <c r="J18" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="K18" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K18" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L18" s="0" t="s">
@@ -4680,7 +4651,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>47</v>
       </c>
@@ -4711,10 +4682,7 @@
       <c r="J19" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="K19" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K19" s="2"/>
       <c r="L19" s="0" t="s">
         <v>21</v>
       </c>
@@ -4722,7 +4690,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>52</v>
       </c>
@@ -4753,10 +4721,7 @@
       <c r="J20" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="K20" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K20" s="2"/>
       <c r="L20" s="0" t="s">
         <v>21</v>
       </c>
@@ -4764,7 +4729,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>56</v>
       </c>
@@ -4795,10 +4760,7 @@
       <c r="J21" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="K21" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K21" s="2"/>
       <c r="L21" s="0" t="s">
         <v>21</v>
       </c>
@@ -4806,7 +4768,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>60</v>
       </c>
@@ -4837,10 +4799,7 @@
       <c r="J22" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="K22" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K22" s="2"/>
       <c r="L22" s="0" t="s">
         <v>21</v>
       </c>
@@ -4848,7 +4807,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>64</v>
       </c>
@@ -4879,10 +4838,7 @@
       <c r="J23" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="K23" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K23" s="2"/>
       <c r="L23" s="0" t="s">
         <v>21</v>
       </c>
@@ -4890,7 +4846,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>68</v>
       </c>
@@ -4921,10 +4877,7 @@
       <c r="J24" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="K24" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K24" s="2"/>
       <c r="L24" s="0" t="s">
         <v>21</v>
       </c>
@@ -4932,7 +4885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>72</v>
       </c>
@@ -4963,10 +4916,7 @@
       <c r="J25" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="K25" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K25" s="2"/>
       <c r="L25" s="0" t="s">
         <v>21</v>
       </c>
@@ -4974,7 +4924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>76</v>
       </c>
@@ -5005,10 +4955,7 @@
       <c r="J26" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="K26" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K26" s="2"/>
       <c r="L26" s="0" t="s">
         <v>21</v>
       </c>
@@ -5016,7 +4963,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>47</v>
       </c>
@@ -5047,10 +4994,7 @@
       <c r="J27" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="K27" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K27" s="2"/>
       <c r="L27" s="0" t="s">
         <v>21</v>
       </c>
@@ -5058,7 +5002,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="44.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>52</v>
       </c>
@@ -5089,10 +5033,7 @@
       <c r="J28" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="K28" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K28" s="2"/>
       <c r="L28" s="0" t="s">
         <v>21</v>
       </c>
@@ -5100,7 +5041,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>56</v>
       </c>
@@ -5131,10 +5072,7 @@
       <c r="J29" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="K29" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K29" s="2"/>
       <c r="L29" s="0" t="s">
         <v>21</v>
       </c>
@@ -5142,7 +5080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="44.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>60</v>
       </c>
@@ -5173,10 +5111,7 @@
       <c r="J30" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="K30" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K30" s="2"/>
       <c r="L30" s="0" t="s">
         <v>21</v>
       </c>
@@ -5184,7 +5119,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>64</v>
       </c>
@@ -5215,10 +5150,7 @@
       <c r="J31" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="K31" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K31" s="2"/>
       <c r="L31" s="0" t="s">
         <v>21</v>
       </c>
@@ -5226,7 +5158,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>68</v>
       </c>
@@ -5257,10 +5189,7 @@
       <c r="J32" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="K32" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K32" s="2"/>
       <c r="L32" s="0" t="s">
         <v>21</v>
       </c>
@@ -5268,7 +5197,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>72</v>
       </c>
@@ -5299,10 +5228,7 @@
       <c r="J33" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="K33" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K33" s="2"/>
       <c r="L33" s="0" t="s">
         <v>21</v>
       </c>
@@ -5310,7 +5236,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>76</v>
       </c>
@@ -5341,10 +5267,7 @@
       <c r="J34" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="K34" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K34" s="2"/>
       <c r="L34" s="0" t="s">
         <v>21</v>
       </c>
@@ -5410,10 +5333,7 @@
       <c r="J44" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="K44" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K44" s="2"/>
       <c r="L44" s="0" t="s">
         <v>21</v>
       </c>
@@ -5452,10 +5372,7 @@
       <c r="J45" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="K45" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K45" s="2"/>
       <c r="L45" s="0" t="s">
         <v>21</v>
       </c>
@@ -5494,10 +5411,7 @@
       <c r="J46" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="K46" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K46" s="2"/>
       <c r="L46" s="0" t="s">
         <v>21</v>
       </c>
@@ -5536,10 +5450,7 @@
       <c r="J47" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="K47" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K47" s="2"/>
       <c r="L47" s="0" t="s">
         <v>21</v>
       </c>
@@ -5578,10 +5489,7 @@
       <c r="J48" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="K48" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K48" s="2"/>
       <c r="L48" s="0" t="s">
         <v>21</v>
       </c>
@@ -5620,10 +5528,7 @@
       <c r="J49" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="K49" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K49" s="2"/>
       <c r="L49" s="0" t="s">
         <v>21</v>
       </c>
@@ -5662,10 +5567,7 @@
       <c r="J50" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="K50" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K50" s="2"/>
       <c r="L50" s="0" t="s">
         <v>21</v>
       </c>
@@ -5704,10 +5606,7 @@
       <c r="J51" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="K51" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K51" s="2"/>
       <c r="L51" s="0" t="s">
         <v>21</v>
       </c>
@@ -5746,10 +5645,7 @@
       <c r="J52" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="K52" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K52" s="2"/>
       <c r="L52" s="0" t="s">
         <v>21</v>
       </c>
@@ -5788,10 +5684,7 @@
       <c r="J53" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="K53" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K53" s="2"/>
       <c r="L53" s="0" t="s">
         <v>21</v>
       </c>
@@ -5830,10 +5723,7 @@
       <c r="J54" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="K54" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K54" s="2"/>
       <c r="L54" s="0" t="s">
         <v>21</v>
       </c>
@@ -5872,10 +5762,7 @@
       <c r="J55" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="K55" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K55" s="2"/>
       <c r="L55" s="0" t="s">
         <v>21</v>
       </c>
@@ -5914,10 +5801,7 @@
       <c r="J56" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="K56" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K56" s="2"/>
       <c r="L56" s="0" t="s">
         <v>21</v>
       </c>
@@ -5956,10 +5840,7 @@
       <c r="J57" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="K57" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K57" s="2"/>
       <c r="L57" s="0" t="s">
         <v>21</v>
       </c>
@@ -5998,10 +5879,7 @@
       <c r="J58" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="K58" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K58" s="2"/>
       <c r="L58" s="0" t="s">
         <v>21</v>
       </c>
@@ -6040,10 +5918,7 @@
       <c r="J59" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="K59" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K59" s="2"/>
       <c r="L59" s="0" t="s">
         <v>21</v>
       </c>
@@ -6082,10 +5957,7 @@
       <c r="J60" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="K60" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K60" s="2"/>
       <c r="L60" s="0" t="s">
         <v>21</v>
       </c>
@@ -6124,10 +5996,7 @@
       <c r="J61" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="K61" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K61" s="2"/>
       <c r="L61" s="0" t="s">
         <v>21</v>
       </c>
@@ -6166,8 +6035,7 @@
       <c r="J62" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="K62" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K62" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L62" s="0" t="s">
@@ -6208,8 +6076,7 @@
       <c r="J63" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="K63" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K63" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L63" s="0" t="s">
@@ -6250,8 +6117,7 @@
       <c r="J64" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="K64" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K64" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L64" s="0" t="s">
@@ -6292,8 +6158,7 @@
       <c r="J65" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="K65" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K65" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L65" s="0" t="s">
@@ -6334,8 +6199,7 @@
       <c r="J66" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="K66" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K66" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L66" s="0" t="s">
@@ -6376,8 +6240,7 @@
       <c r="J67" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="K67" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K67" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L67" s="0" t="s">
@@ -6418,10 +6281,7 @@
       <c r="J68" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="K68" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K68" s="2"/>
       <c r="L68" s="0" t="s">
         <v>21</v>
       </c>
@@ -6460,10 +6320,7 @@
       <c r="J69" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="K69" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K69" s="2"/>
       <c r="L69" s="0" t="s">
         <v>21</v>
       </c>
@@ -6502,10 +6359,7 @@
       <c r="J70" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="K70" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K70" s="2"/>
       <c r="L70" s="0" t="s">
         <v>21</v>
       </c>
@@ -6544,10 +6398,7 @@
       <c r="J71" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="K71" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K71" s="2"/>
       <c r="L71" s="0" t="s">
         <v>21</v>
       </c>
@@ -6586,10 +6437,7 @@
       <c r="J72" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="K72" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K72" s="2"/>
       <c r="L72" s="0" t="s">
         <v>21</v>
       </c>
@@ -6628,10 +6476,7 @@
       <c r="J73" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="K73" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K73" s="2"/>
       <c r="L73" s="0" t="s">
         <v>21</v>
       </c>
@@ -6670,10 +6515,7 @@
       <c r="J74" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="K74" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K74" s="2"/>
       <c r="L74" s="0" t="s">
         <v>21</v>
       </c>
@@ -6712,10 +6554,7 @@
       <c r="J75" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="K75" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K75" s="2"/>
       <c r="L75" s="0" t="s">
         <v>21</v>
       </c>
@@ -6754,10 +6593,7 @@
       <c r="J76" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="K76" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K76" s="2"/>
       <c r="L76" s="0" t="s">
         <v>21</v>
       </c>
@@ -6796,10 +6632,7 @@
       <c r="J77" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="K77" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K77" s="2"/>
       <c r="L77" s="0" t="s">
         <v>21</v>
       </c>
@@ -6838,10 +6671,7 @@
       <c r="J78" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="K78" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K78" s="2"/>
       <c r="L78" s="0" t="s">
         <v>21</v>
       </c>
@@ -6880,10 +6710,7 @@
       <c r="J79" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="K79" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K79" s="2"/>
       <c r="L79" s="0" t="s">
         <v>21</v>
       </c>
@@ -6922,8 +6749,7 @@
       <c r="J80" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="K80" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K80" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L80" s="0" t="s">
@@ -6964,10 +6790,7 @@
       <c r="J81" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="K81" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K81" s="2"/>
       <c r="L81" s="0" t="s">
         <v>21</v>
       </c>
@@ -7006,10 +6829,7 @@
       <c r="J82" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="K82" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K82" s="2"/>
       <c r="L82" s="0" t="s">
         <v>21</v>
       </c>
@@ -7048,8 +6868,7 @@
       <c r="J83" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="K83" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K83" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L83" s="0" t="s">
@@ -7090,10 +6909,7 @@
       <c r="J84" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="K84" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K84" s="2"/>
       <c r="L84" s="0" t="s">
         <v>21</v>
       </c>
@@ -7132,10 +6948,7 @@
       <c r="J85" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="K85" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K85" s="2"/>
       <c r="L85" s="0" t="s">
         <v>21</v>
       </c>
@@ -7174,8 +6987,7 @@
       <c r="J86" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="K86" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K86" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L86" s="0" t="s">
@@ -7216,10 +7028,7 @@
       <c r="J87" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="K87" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K87" s="2"/>
       <c r="L87" s="0" t="s">
         <v>21</v>
       </c>
@@ -7258,10 +7067,7 @@
       <c r="J88" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="K88" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K88" s="2"/>
       <c r="L88" s="0" t="s">
         <v>21</v>
       </c>
@@ -7300,8 +7106,7 @@
       <c r="J89" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="K89" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K89" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L89" s="0" t="s">
@@ -7342,10 +7147,7 @@
       <c r="J90" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="K90" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K90" s="2"/>
       <c r="L90" s="0" t="s">
         <v>21</v>
       </c>
@@ -7384,10 +7186,7 @@
       <c r="J91" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="K91" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K91" s="2"/>
       <c r="L91" s="0" t="s">
         <v>21</v>
       </c>
@@ -7426,8 +7225,7 @@
       <c r="J92" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="K92" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K92" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L92" s="0" t="s">
@@ -7468,10 +7266,7 @@
       <c r="J93" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="K93" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K93" s="2"/>
       <c r="L93" s="0" t="s">
         <v>21</v>
       </c>
@@ -7510,10 +7305,7 @@
       <c r="J94" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="K94" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K94" s="2"/>
       <c r="L94" s="0" t="s">
         <v>21</v>
       </c>
@@ -7552,8 +7344,7 @@
       <c r="J95" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="K95" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K95" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L95" s="0" t="s">
@@ -7594,10 +7385,7 @@
       <c r="J96" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="K96" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K96" s="2"/>
       <c r="L96" s="0" t="s">
         <v>21</v>
       </c>
@@ -7636,10 +7424,7 @@
       <c r="J97" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="K97" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K97" s="2"/>
       <c r="L97" s="0" t="s">
         <v>21</v>
       </c>
@@ -7678,8 +7463,7 @@
       <c r="J98" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="K98" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K98" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L98" s="0" t="s">
@@ -7720,10 +7504,7 @@
       <c r="J99" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="K99" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K99" s="2"/>
       <c r="L99" s="0" t="s">
         <v>21</v>
       </c>
@@ -7762,10 +7543,7 @@
       <c r="J100" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="K100" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K100" s="2"/>
       <c r="L100" s="0" t="s">
         <v>21</v>
       </c>
@@ -7804,8 +7582,7 @@
       <c r="J101" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="K101" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K101" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L101" s="0" t="s">
@@ -7846,10 +7623,7 @@
       <c r="J102" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="K102" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K102" s="2"/>
       <c r="L102" s="0" t="s">
         <v>21</v>
       </c>
@@ -7888,10 +7662,7 @@
       <c r="J103" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="K103" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K103" s="2"/>
       <c r="L103" s="0" t="s">
         <v>21</v>
       </c>
@@ -7930,8 +7701,7 @@
       <c r="J104" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="K104" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K104" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L104" s="0" t="s">
@@ -7975,8 +7745,7 @@
       <c r="J106" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="K106" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K106" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L106" s="0" t="s">
@@ -8017,8 +7786,7 @@
       <c r="J107" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="K107" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K107" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L107" s="0" t="s">
@@ -8059,8 +7827,7 @@
       <c r="J108" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="K108" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K108" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L108" s="0" t="s">
@@ -8101,10 +7868,7 @@
       <c r="J109" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="K109" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K109" s="2"/>
       <c r="L109" s="0" t="s">
         <v>21</v>
       </c>
@@ -8143,10 +7907,7 @@
       <c r="J110" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="K110" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K110" s="2"/>
       <c r="L110" s="0" t="s">
         <v>21</v>
       </c>
@@ -8185,8 +7946,7 @@
       <c r="J111" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="K111" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K111" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L111" s="0" t="s">
@@ -8227,10 +7987,7 @@
       <c r="J112" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="K112" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K112" s="2"/>
       <c r="L112" s="0" t="s">
         <v>21</v>
       </c>
@@ -8269,10 +8026,7 @@
       <c r="J113" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="K113" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K113" s="2"/>
       <c r="L113" s="0" t="s">
         <v>21</v>
       </c>
@@ -8311,8 +8065,7 @@
       <c r="J114" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="K114" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K114" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L114" s="0" t="s">
@@ -8353,10 +8106,7 @@
       <c r="J115" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="K115" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K115" s="2"/>
       <c r="L115" s="0" t="s">
         <v>21</v>
       </c>
@@ -8395,10 +8145,7 @@
       <c r="J116" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="K116" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K116" s="2"/>
       <c r="L116" s="0" t="s">
         <v>21</v>
       </c>
@@ -8437,10 +8184,7 @@
       <c r="J117" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="K117" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K117" s="2"/>
       <c r="L117" s="0" t="s">
         <v>21</v>
       </c>
@@ -8482,10 +8226,7 @@
       <c r="J119" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="K119" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K119" s="2"/>
       <c r="L119" s="0" t="s">
         <v>21</v>
       </c>
@@ -8524,10 +8265,7 @@
       <c r="J120" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="K120" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K120" s="2"/>
       <c r="L120" s="0" t="s">
         <v>21</v>
       </c>
@@ -8569,10 +8307,7 @@
       <c r="J122" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="K122" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K122" s="2"/>
       <c r="L122" s="0" t="s">
         <v>21</v>
       </c>
@@ -8614,10 +8349,7 @@
       <c r="J124" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="K124" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K124" s="2"/>
       <c r="L124" s="0" t="s">
         <v>21</v>
       </c>
@@ -8656,10 +8388,7 @@
       <c r="J125" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="K125" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K125" s="2"/>
       <c r="L125" s="0" t="s">
         <v>21</v>
       </c>
@@ -8698,10 +8427,7 @@
       <c r="J126" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="K126" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K126" s="2"/>
       <c r="L126" s="0" t="s">
         <v>21</v>
       </c>
@@ -8740,8 +8466,7 @@
       <c r="J127" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="K127" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K127" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L127" s="0" t="s">
@@ -8782,10 +8507,7 @@
       <c r="J128" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="K128" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K128" s="2"/>
       <c r="L128" s="0" t="s">
         <v>21</v>
       </c>
@@ -8824,10 +8546,7 @@
       <c r="J129" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="K129" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K129" s="2"/>
       <c r="L129" s="0" t="s">
         <v>21</v>
       </c>
@@ -8866,8 +8585,7 @@
       <c r="J130" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="K130" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K130" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L130" s="0" t="s">
@@ -8908,10 +8626,7 @@
       <c r="J131" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="K131" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K131" s="2"/>
       <c r="L131" s="0" t="s">
         <v>21</v>
       </c>
@@ -8950,8 +8665,7 @@
       <c r="J132" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="K132" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K132" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L132" s="0" t="s">
@@ -8992,10 +8706,7 @@
       <c r="J133" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="K133" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K133" s="2"/>
       <c r="L133" s="0" t="s">
         <v>21</v>
       </c>
@@ -9034,10 +8745,7 @@
       <c r="J134" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="K134" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K134" s="2"/>
       <c r="L134" s="0" t="s">
         <v>21</v>
       </c>
@@ -9076,8 +8784,7 @@
       <c r="J135" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="K135" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K135" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L135" s="0" t="s">
@@ -9118,10 +8825,7 @@
       <c r="J136" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="K136" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K136" s="2"/>
       <c r="L136" s="0" t="s">
         <v>21</v>
       </c>
@@ -9160,10 +8864,7 @@
       <c r="J137" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="K137" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K137" s="2"/>
       <c r="L137" s="0" t="s">
         <v>21</v>
       </c>
@@ -9202,8 +8903,7 @@
       <c r="J138" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="K138" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K138" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L138" s="0" t="s">
@@ -9244,10 +8944,7 @@
       <c r="J139" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="K139" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K139" s="2"/>
       <c r="L139" s="0" t="s">
         <v>21</v>
       </c>
@@ -9286,10 +8983,7 @@
       <c r="J140" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="K140" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K140" s="2"/>
       <c r="L140" s="0" t="s">
         <v>21</v>
       </c>
@@ -9328,8 +9022,7 @@
       <c r="J141" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="K141" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K141" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L141" s="0" t="s">
@@ -9370,10 +9063,7 @@
       <c r="J142" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="K142" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K142" s="2"/>
       <c r="L142" s="0" t="s">
         <v>21</v>
       </c>
@@ -9412,10 +9102,7 @@
       <c r="J143" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="K143" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K143" s="2"/>
       <c r="L143" s="0" t="s">
         <v>21</v>
       </c>
@@ -9454,8 +9141,7 @@
       <c r="J144" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="K144" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K144" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L144" s="0" t="s">
@@ -9496,10 +9182,7 @@
       <c r="J145" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="K145" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K145" s="2"/>
       <c r="L145" s="0" t="s">
         <v>21</v>
       </c>
@@ -9538,10 +9221,7 @@
       <c r="J146" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="K146" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K146" s="2"/>
       <c r="L146" s="0" t="s">
         <v>21</v>
       </c>
@@ -9580,8 +9260,7 @@
       <c r="J147" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="K147" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K147" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L147" s="0" t="s">
@@ -9622,10 +9301,7 @@
       <c r="J148" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="K148" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K148" s="2"/>
       <c r="L148" s="0" t="s">
         <v>21</v>
       </c>
@@ -9664,10 +9340,7 @@
       <c r="J149" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="K149" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K149" s="2"/>
       <c r="L149" s="0" t="s">
         <v>21</v>
       </c>
@@ -9706,8 +9379,7 @@
       <c r="J150" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="K150" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K150" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L150" s="0" t="s">
@@ -9748,10 +9420,7 @@
       <c r="J151" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="K151" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K151" s="2"/>
       <c r="L151" s="0" t="s">
         <v>21</v>
       </c>
@@ -9790,10 +9459,7 @@
       <c r="J152" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="K152" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K152" s="2"/>
       <c r="L152" s="0" t="s">
         <v>21</v>
       </c>
@@ -9832,8 +9498,7 @@
       <c r="J153" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="K153" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K153" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L153" s="0" t="s">
@@ -9874,10 +9539,7 @@
       <c r="J154" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="K154" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K154" s="2"/>
       <c r="L154" s="0" t="s">
         <v>21</v>
       </c>
@@ -9916,10 +9578,7 @@
       <c r="J155" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="K155" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K155" s="2"/>
       <c r="L155" s="0" t="s">
         <v>21</v>
       </c>
@@ -9958,8 +9617,7 @@
       <c r="J156" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="K156" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K156" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L156" s="0" t="s">
@@ -10000,10 +9658,7 @@
       <c r="J157" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="K157" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K157" s="2"/>
       <c r="L157" s="0" t="s">
         <v>21</v>
       </c>
@@ -10042,10 +9697,7 @@
       <c r="J158" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="K158" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K158" s="2"/>
       <c r="L158" s="0" t="s">
         <v>21</v>
       </c>
@@ -10084,8 +9736,7 @@
       <c r="J159" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="K159" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K159" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L159" s="0" t="s">
@@ -10126,10 +9777,7 @@
       <c r="J160" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="K160" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K160" s="2"/>
       <c r="L160" s="0" t="s">
         <v>21</v>
       </c>
@@ -10168,10 +9816,7 @@
       <c r="J161" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="K161" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K161" s="2"/>
       <c r="L161" s="0" t="s">
         <v>21</v>
       </c>
@@ -10210,8 +9855,7 @@
       <c r="J162" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="K162" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K162" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L162" s="0" t="s">
@@ -10252,10 +9896,7 @@
       <c r="J163" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="K163" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K163" s="2"/>
       <c r="L163" s="0" t="s">
         <v>21</v>
       </c>
@@ -10294,10 +9935,7 @@
       <c r="J164" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="K164" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K164" s="2"/>
       <c r="L164" s="0" t="s">
         <v>21</v>
       </c>
@@ -10336,8 +9974,7 @@
       <c r="J165" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="K165" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K165" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L165" s="0" t="s">
@@ -10378,10 +10015,7 @@
       <c r="J166" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="K166" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K166" s="2"/>
       <c r="L166" s="0" t="s">
         <v>21</v>
       </c>
@@ -10420,10 +10054,7 @@
       <c r="J167" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="K167" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K167" s="2"/>
       <c r="L167" s="0" t="s">
         <v>21</v>
       </c>
@@ -10462,8 +10093,7 @@
       <c r="J168" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="K168" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K168" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L168" s="0" t="s">
@@ -10504,10 +10134,7 @@
       <c r="J169" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="K169" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K169" s="2"/>
       <c r="L169" s="0" t="s">
         <v>21</v>
       </c>
@@ -10546,10 +10173,7 @@
       <c r="J170" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="K170" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K170" s="2"/>
       <c r="L170" s="0" t="s">
         <v>21</v>
       </c>
@@ -10588,8 +10212,7 @@
       <c r="J171" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="K171" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K171" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L171" s="0" t="s">
@@ -10630,10 +10253,7 @@
       <c r="J172" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="K172" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K172" s="2"/>
       <c r="L172" s="0" t="s">
         <v>21</v>
       </c>
@@ -10672,10 +10292,7 @@
       <c r="J173" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="K173" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K173" s="2"/>
       <c r="L173" s="0" t="s">
         <v>21</v>
       </c>
@@ -10714,8 +10331,7 @@
       <c r="J174" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="K174" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K174" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L174" s="0" t="s">
@@ -10756,10 +10372,7 @@
       <c r="J175" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="K175" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K175" s="2"/>
       <c r="L175" s="0" t="s">
         <v>21</v>
       </c>
@@ -10798,10 +10411,7 @@
       <c r="J176" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="K176" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K176" s="2"/>
       <c r="L176" s="0" t="s">
         <v>21</v>
       </c>
@@ -10840,8 +10450,7 @@
       <c r="J177" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="K177" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K177" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L177" s="0" t="s">
@@ -10882,10 +10491,7 @@
       <c r="J178" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="K178" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K178" s="2"/>
       <c r="L178" s="0" t="s">
         <v>21</v>
       </c>
@@ -10924,10 +10530,7 @@
       <c r="J179" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="K179" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K179" s="2"/>
       <c r="L179" s="0" t="s">
         <v>21</v>
       </c>
@@ -10966,8 +10569,7 @@
       <c r="J180" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="K180" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K180" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L180" s="0" t="s">
@@ -11008,10 +10610,7 @@
       <c r="J181" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="K181" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K181" s="2"/>
       <c r="L181" s="0" t="s">
         <v>21</v>
       </c>
@@ -11050,10 +10649,7 @@
       <c r="J182" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="K182" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K182" s="2"/>
       <c r="L182" s="0" t="s">
         <v>21</v>
       </c>
@@ -11092,8 +10688,7 @@
       <c r="J183" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="K183" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K183" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L183" s="0" t="s">
@@ -11134,10 +10729,7 @@
       <c r="J184" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="K184" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K184" s="2"/>
       <c r="L184" s="0" t="s">
         <v>21</v>
       </c>
@@ -11176,10 +10768,7 @@
       <c r="J185" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="K185" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K185" s="2"/>
       <c r="L185" s="0" t="s">
         <v>21</v>
       </c>
@@ -11218,8 +10807,7 @@
       <c r="J186" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="K186" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K186" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L186" s="0" t="s">
@@ -11260,10 +10848,7 @@
       <c r="J187" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="K187" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K187" s="2"/>
       <c r="L187" s="0" t="s">
         <v>21</v>
       </c>
@@ -11302,10 +10887,7 @@
       <c r="J188" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="K188" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K188" s="2"/>
       <c r="L188" s="0" t="s">
         <v>21</v>
       </c>
@@ -11344,8 +10926,7 @@
       <c r="J189" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="K189" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K189" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L189" s="0" t="s">
@@ -11386,10 +10967,7 @@
       <c r="J190" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="K190" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K190" s="2"/>
       <c r="L190" s="0" t="s">
         <v>21</v>
       </c>
@@ -11428,10 +11006,7 @@
       <c r="J191" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="K191" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K191" s="2"/>
       <c r="L191" s="0" t="s">
         <v>21</v>
       </c>
@@ -11470,8 +11045,7 @@
       <c r="J192" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="K192" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K192" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L192" s="0" t="s">
@@ -11512,10 +11086,7 @@
       <c r="J193" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="K193" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K193" s="2"/>
       <c r="L193" s="0" t="s">
         <v>21</v>
       </c>
@@ -11554,10 +11125,7 @@
       <c r="J194" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="K194" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K194" s="2"/>
       <c r="L194" s="0" t="s">
         <v>21</v>
       </c>
@@ -11596,8 +11164,7 @@
       <c r="J195" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="K195" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K195" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L195" s="0" t="s">
@@ -11638,10 +11205,7 @@
       <c r="J196" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="K196" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K196" s="2"/>
       <c r="L196" s="0" t="s">
         <v>21</v>
       </c>
@@ -11680,10 +11244,7 @@
       <c r="J197" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="K197" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K197" s="2"/>
       <c r="L197" s="0" t="s">
         <v>21</v>
       </c>
@@ -11722,8 +11283,7 @@
       <c r="J198" s="0" t="s">
         <v>462</v>
       </c>
-      <c r="K198" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K198" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L198" s="0" t="s">
@@ -11764,10 +11324,7 @@
       <c r="J199" s="0" t="s">
         <v>462</v>
       </c>
-      <c r="K199" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K199" s="2"/>
       <c r="L199" s="0" t="s">
         <v>21</v>
       </c>
@@ -11806,10 +11363,7 @@
       <c r="J200" s="0" t="s">
         <v>462</v>
       </c>
-      <c r="K200" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K200" s="2"/>
       <c r="L200" s="0" t="s">
         <v>21</v>
       </c>
@@ -11848,8 +11402,7 @@
       <c r="J201" s="0" t="s">
         <v>470</v>
       </c>
-      <c r="K201" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K201" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L201" s="0" t="s">
@@ -11890,10 +11443,7 @@
       <c r="J202" s="0" t="s">
         <v>470</v>
       </c>
-      <c r="K202" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K202" s="2"/>
       <c r="L202" s="0" t="s">
         <v>21</v>
       </c>
@@ -11932,10 +11482,7 @@
       <c r="J203" s="0" t="s">
         <v>470</v>
       </c>
-      <c r="K203" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K203" s="2"/>
       <c r="L203" s="0" t="s">
         <v>21</v>
       </c>
@@ -11974,8 +11521,7 @@
       <c r="J204" s="0" t="s">
         <v>477</v>
       </c>
-      <c r="K204" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K204" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L204" s="0" t="s">
@@ -12016,10 +11562,7 @@
       <c r="J205" s="0" t="s">
         <v>477</v>
       </c>
-      <c r="K205" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K205" s="2"/>
       <c r="L205" s="0" t="s">
         <v>21</v>
       </c>
@@ -12058,10 +11601,7 @@
       <c r="J206" s="0" t="s">
         <v>477</v>
       </c>
-      <c r="K206" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K206" s="2"/>
       <c r="L206" s="0" t="s">
         <v>21</v>
       </c>
@@ -12100,8 +11640,7 @@
       <c r="J207" s="0" t="s">
         <v>483</v>
       </c>
-      <c r="K207" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K207" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L207" s="0" t="s">
@@ -12142,10 +11681,7 @@
       <c r="J208" s="0" t="s">
         <v>483</v>
       </c>
-      <c r="K208" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K208" s="2"/>
       <c r="L208" s="0" t="s">
         <v>21</v>
       </c>
@@ -12184,10 +11720,7 @@
       <c r="J209" s="0" t="s">
         <v>483</v>
       </c>
-      <c r="K209" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K209" s="2"/>
       <c r="L209" s="0" t="s">
         <v>21</v>
       </c>
@@ -12226,8 +11759,7 @@
       <c r="J210" s="0" t="s">
         <v>491</v>
       </c>
-      <c r="K210" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K210" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L210" s="0" t="s">
@@ -12268,10 +11800,7 @@
       <c r="J211" s="0" t="s">
         <v>491</v>
       </c>
-      <c r="K211" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K211" s="2"/>
       <c r="L211" s="0" t="s">
         <v>21</v>
       </c>
@@ -12310,10 +11839,7 @@
       <c r="J212" s="0" t="s">
         <v>491</v>
       </c>
-      <c r="K212" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K212" s="2"/>
       <c r="L212" s="0" t="s">
         <v>21</v>
       </c>
@@ -12352,8 +11878,7 @@
       <c r="J213" s="0" t="s">
         <v>498</v>
       </c>
-      <c r="K213" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K213" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L213" s="0" t="s">
@@ -12394,10 +11919,7 @@
       <c r="J214" s="0" t="s">
         <v>498</v>
       </c>
-      <c r="K214" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K214" s="2"/>
       <c r="L214" s="0" t="s">
         <v>21</v>
       </c>
@@ -12436,10 +11958,7 @@
       <c r="J215" s="0" t="s">
         <v>498</v>
       </c>
-      <c r="K215" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K215" s="2"/>
       <c r="L215" s="0" t="s">
         <v>21</v>
       </c>
@@ -12478,8 +11997,7 @@
       <c r="J216" s="0" t="s">
         <v>504</v>
       </c>
-      <c r="K216" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K216" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L216" s="0" t="s">
@@ -12520,10 +12038,7 @@
       <c r="J217" s="0" t="s">
         <v>504</v>
       </c>
-      <c r="K217" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K217" s="2"/>
       <c r="L217" s="0" t="s">
         <v>21</v>
       </c>
@@ -12562,10 +12077,7 @@
       <c r="J218" s="0" t="s">
         <v>504</v>
       </c>
-      <c r="K218" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K218" s="2"/>
       <c r="L218" s="0" t="s">
         <v>21</v>
       </c>
@@ -12604,8 +12116,7 @@
       <c r="J219" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="K219" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K219" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L219" s="0" t="s">
@@ -12646,10 +12157,7 @@
       <c r="J220" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="K220" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K220" s="2"/>
       <c r="L220" s="0" t="s">
         <v>21</v>
       </c>
@@ -12688,10 +12196,7 @@
       <c r="J221" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="K221" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K221" s="2"/>
       <c r="L221" s="0" t="s">
         <v>21</v>
       </c>
@@ -12730,8 +12235,7 @@
       <c r="J222" s="0" t="s">
         <v>519</v>
       </c>
-      <c r="K222" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K222" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L222" s="0" t="s">
@@ -12772,10 +12276,7 @@
       <c r="J223" s="0" t="s">
         <v>519</v>
       </c>
-      <c r="K223" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K223" s="2"/>
       <c r="L223" s="0" t="s">
         <v>21</v>
       </c>
@@ -12814,10 +12315,7 @@
       <c r="J224" s="0" t="s">
         <v>519</v>
       </c>
-      <c r="K224" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K224" s="2"/>
       <c r="L224" s="0" t="s">
         <v>21</v>
       </c>
@@ -12856,8 +12354,7 @@
       <c r="J225" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="K225" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K225" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L225" s="0" t="s">
@@ -12898,10 +12395,7 @@
       <c r="J226" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="K226" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K226" s="2"/>
       <c r="L226" s="0" t="s">
         <v>21</v>
       </c>
@@ -12940,10 +12434,7 @@
       <c r="J227" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="K227" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K227" s="2"/>
       <c r="L227" s="0" t="s">
         <v>21</v>
       </c>
@@ -12982,8 +12473,7 @@
       <c r="J228" s="0" t="s">
         <v>533</v>
       </c>
-      <c r="K228" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K228" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L228" s="0" t="s">
@@ -13024,10 +12514,7 @@
       <c r="J229" s="0" t="s">
         <v>533</v>
       </c>
-      <c r="K229" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K229" s="2"/>
       <c r="L229" s="0" t="s">
         <v>21</v>
       </c>
@@ -13066,10 +12553,7 @@
       <c r="J230" s="0" t="s">
         <v>533</v>
       </c>
-      <c r="K230" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K230" s="2"/>
       <c r="L230" s="0" t="s">
         <v>21</v>
       </c>
@@ -13108,8 +12592,7 @@
       <c r="J231" s="0" t="s">
         <v>540</v>
       </c>
-      <c r="K231" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K231" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L231" s="0" t="s">
@@ -13150,10 +12633,7 @@
       <c r="J232" s="0" t="s">
         <v>540</v>
       </c>
-      <c r="K232" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K232" s="2"/>
       <c r="L232" s="0" t="s">
         <v>21</v>
       </c>
@@ -13192,10 +12672,7 @@
       <c r="J233" s="0" t="s">
         <v>540</v>
       </c>
-      <c r="K233" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K233" s="2"/>
       <c r="L233" s="0" t="s">
         <v>21</v>
       </c>
@@ -13234,8 +12711,7 @@
       <c r="J234" s="0" t="s">
         <v>546</v>
       </c>
-      <c r="K234" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K234" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L234" s="0" t="s">
@@ -13276,10 +12752,7 @@
       <c r="J235" s="0" t="s">
         <v>546</v>
       </c>
-      <c r="K235" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K235" s="2"/>
       <c r="L235" s="0" t="s">
         <v>21</v>
       </c>
@@ -13318,10 +12791,7 @@
       <c r="J236" s="0" t="s">
         <v>546</v>
       </c>
-      <c r="K236" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K236" s="2"/>
       <c r="L236" s="0" t="s">
         <v>21</v>
       </c>
@@ -13360,8 +12830,7 @@
       <c r="J237" s="0" t="s">
         <v>554</v>
       </c>
-      <c r="K237" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K237" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L237" s="0" t="s">
@@ -13402,10 +12871,7 @@
       <c r="J238" s="0" t="s">
         <v>554</v>
       </c>
-      <c r="K238" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K238" s="2"/>
       <c r="L238" s="0" t="s">
         <v>21</v>
       </c>
@@ -13444,10 +12910,7 @@
       <c r="J239" s="0" t="s">
         <v>554</v>
       </c>
-      <c r="K239" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K239" s="2"/>
       <c r="L239" s="0" t="s">
         <v>21</v>
       </c>
@@ -13486,8 +12949,7 @@
       <c r="J240" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="K240" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K240" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L240" s="0" t="s">
@@ -13528,10 +12990,7 @@
       <c r="J241" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="K241" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K241" s="2"/>
       <c r="L241" s="0" t="s">
         <v>21</v>
       </c>
@@ -13570,10 +13029,7 @@
       <c r="J242" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="K242" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K242" s="2"/>
       <c r="L242" s="0" t="s">
         <v>21</v>
       </c>
@@ -13612,8 +13068,7 @@
       <c r="J243" s="0" t="s">
         <v>569</v>
       </c>
-      <c r="K243" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K243" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L243" s="0" t="s">
@@ -13654,10 +13109,7 @@
       <c r="J244" s="0" t="s">
         <v>569</v>
       </c>
-      <c r="K244" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K244" s="2"/>
       <c r="L244" s="0" t="s">
         <v>21</v>
       </c>
@@ -13696,10 +13148,7 @@
       <c r="J245" s="0" t="s">
         <v>569</v>
       </c>
-      <c r="K245" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K245" s="2"/>
       <c r="L245" s="0" t="s">
         <v>21</v>
       </c>
@@ -13738,8 +13187,7 @@
       <c r="J246" s="0" t="s">
         <v>577</v>
       </c>
-      <c r="K246" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K246" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L246" s="0" t="s">
@@ -13780,10 +13228,7 @@
       <c r="J247" s="0" t="s">
         <v>577</v>
       </c>
-      <c r="K247" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K247" s="2"/>
       <c r="L247" s="0" t="s">
         <v>21</v>
       </c>
@@ -13822,10 +13267,7 @@
       <c r="J248" s="0" t="s">
         <v>577</v>
       </c>
-      <c r="K248" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K248" s="2"/>
       <c r="L248" s="0" t="s">
         <v>21</v>
       </c>
@@ -13864,8 +13306,7 @@
       <c r="J249" s="0" t="s">
         <v>584</v>
       </c>
-      <c r="K249" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K249" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L249" s="0" t="s">
@@ -13906,10 +13347,7 @@
       <c r="J250" s="0" t="s">
         <v>584</v>
       </c>
-      <c r="K250" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K250" s="2"/>
       <c r="L250" s="0" t="s">
         <v>21</v>
       </c>
@@ -13948,10 +13386,7 @@
       <c r="J251" s="0" t="s">
         <v>584</v>
       </c>
-      <c r="K251" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K251" s="2"/>
       <c r="L251" s="0" t="s">
         <v>21</v>
       </c>
@@ -13990,8 +13425,7 @@
       <c r="J252" s="0" t="s">
         <v>590</v>
       </c>
-      <c r="K252" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K252" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L252" s="0" t="s">
@@ -14032,10 +13466,7 @@
       <c r="J253" s="0" t="s">
         <v>590</v>
       </c>
-      <c r="K253" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K253" s="2"/>
       <c r="L253" s="0" t="s">
         <v>21</v>
       </c>
@@ -14074,10 +13505,7 @@
       <c r="J254" s="0" t="s">
         <v>590</v>
       </c>
-      <c r="K254" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K254" s="2"/>
       <c r="L254" s="0" t="s">
         <v>21</v>
       </c>
@@ -14116,8 +13544,7 @@
       <c r="J255" s="0" t="s">
         <v>598</v>
       </c>
-      <c r="K255" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K255" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L255" s="0" t="s">
@@ -14158,10 +13585,7 @@
       <c r="J256" s="0" t="s">
         <v>598</v>
       </c>
-      <c r="K256" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K256" s="2"/>
       <c r="L256" s="0" t="s">
         <v>21</v>
       </c>
@@ -14200,10 +13624,7 @@
       <c r="J257" s="0" t="s">
         <v>598</v>
       </c>
-      <c r="K257" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K257" s="2"/>
       <c r="L257" s="0" t="s">
         <v>21</v>
       </c>
@@ -14242,8 +13663,7 @@
       <c r="J258" s="0" t="s">
         <v>605</v>
       </c>
-      <c r="K258" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K258" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L258" s="0" t="s">
@@ -14284,10 +13704,7 @@
       <c r="J259" s="0" t="s">
         <v>605</v>
       </c>
-      <c r="K259" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K259" s="2"/>
       <c r="L259" s="0" t="s">
         <v>21</v>
       </c>
@@ -14326,10 +13743,7 @@
       <c r="J260" s="0" t="s">
         <v>605</v>
       </c>
-      <c r="K260" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K260" s="2"/>
       <c r="L260" s="0" t="s">
         <v>21</v>
       </c>
@@ -14368,8 +13782,7 @@
       <c r="J261" s="0" t="s">
         <v>611</v>
       </c>
-      <c r="K261" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K261" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L261" s="0" t="s">
@@ -14410,10 +13823,7 @@
       <c r="J262" s="0" t="s">
         <v>611</v>
       </c>
-      <c r="K262" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K262" s="2"/>
       <c r="L262" s="0" t="s">
         <v>21</v>
       </c>
@@ -14452,10 +13862,7 @@
       <c r="J263" s="0" t="s">
         <v>611</v>
       </c>
-      <c r="K263" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K263" s="2"/>
       <c r="L263" s="0" t="s">
         <v>21</v>
       </c>
@@ -14494,8 +13901,7 @@
       <c r="J264" s="0" t="s">
         <v>619</v>
       </c>
-      <c r="K264" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K264" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L264" s="0" t="s">
@@ -14536,10 +13942,7 @@
       <c r="J265" s="0" t="s">
         <v>619</v>
       </c>
-      <c r="K265" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K265" s="2"/>
       <c r="L265" s="0" t="s">
         <v>21</v>
       </c>
@@ -14578,10 +13981,7 @@
       <c r="J266" s="0" t="s">
         <v>619</v>
       </c>
-      <c r="K266" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K266" s="2"/>
       <c r="L266" s="0" t="s">
         <v>21</v>
       </c>
@@ -14620,8 +14020,7 @@
       <c r="J267" s="0" t="s">
         <v>626</v>
       </c>
-      <c r="K267" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K267" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L267" s="0" t="s">
@@ -14662,10 +14061,7 @@
       <c r="J268" s="0" t="s">
         <v>626</v>
       </c>
-      <c r="K268" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K268" s="2"/>
       <c r="L268" s="0" t="s">
         <v>21</v>
       </c>
@@ -14704,10 +14100,7 @@
       <c r="J269" s="0" t="s">
         <v>626</v>
       </c>
-      <c r="K269" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K269" s="2"/>
       <c r="L269" s="0" t="s">
         <v>21</v>
       </c>
@@ -14746,8 +14139,7 @@
       <c r="J270" s="0" t="s">
         <v>632</v>
       </c>
-      <c r="K270" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K270" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L270" s="0" t="s">
@@ -14788,10 +14180,7 @@
       <c r="J271" s="0" t="s">
         <v>632</v>
       </c>
-      <c r="K271" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K271" s="2"/>
       <c r="L271" s="0" t="s">
         <v>21</v>
       </c>
@@ -14830,10 +14219,7 @@
       <c r="J272" s="0" t="s">
         <v>632</v>
       </c>
-      <c r="K272" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K272" s="2"/>
       <c r="L272" s="0" t="s">
         <v>21</v>
       </c>
@@ -14872,8 +14258,7 @@
       <c r="J273" s="0" t="s">
         <v>640</v>
       </c>
-      <c r="K273" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K273" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L273" s="0" t="s">
@@ -14914,10 +14299,7 @@
       <c r="J274" s="0" t="s">
         <v>640</v>
       </c>
-      <c r="K274" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K274" s="2"/>
       <c r="L274" s="0" t="s">
         <v>21</v>
       </c>
@@ -14956,10 +14338,7 @@
       <c r="J275" s="0" t="s">
         <v>640</v>
       </c>
-      <c r="K275" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K275" s="2"/>
       <c r="L275" s="0" t="s">
         <v>21</v>
       </c>
@@ -14998,8 +14377,7 @@
       <c r="J276" s="0" t="s">
         <v>647</v>
       </c>
-      <c r="K276" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K276" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L276" s="0" t="s">
@@ -15040,10 +14418,7 @@
       <c r="J277" s="0" t="s">
         <v>647</v>
       </c>
-      <c r="K277" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K277" s="2"/>
       <c r="L277" s="0" t="s">
         <v>21</v>
       </c>
@@ -15082,10 +14457,7 @@
       <c r="J278" s="0" t="s">
         <v>647</v>
       </c>
-      <c r="K278" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K278" s="2"/>
       <c r="L278" s="0" t="s">
         <v>21</v>
       </c>
@@ -15124,8 +14496,7 @@
       <c r="J279" s="0" t="s">
         <v>653</v>
       </c>
-      <c r="K279" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K279" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L279" s="0" t="s">
@@ -15166,10 +14537,7 @@
       <c r="J280" s="0" t="s">
         <v>653</v>
       </c>
-      <c r="K280" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K280" s="2"/>
       <c r="L280" s="0" t="s">
         <v>21</v>
       </c>
@@ -15208,10 +14576,7 @@
       <c r="J281" s="0" t="s">
         <v>653</v>
       </c>
-      <c r="K281" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K281" s="2"/>
       <c r="L281" s="0" t="s">
         <v>21</v>
       </c>
@@ -15250,8 +14615,7 @@
       <c r="J282" s="0" t="s">
         <v>661</v>
       </c>
-      <c r="K282" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K282" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L282" s="0" t="s">
@@ -15292,10 +14656,7 @@
       <c r="J283" s="0" t="s">
         <v>661</v>
       </c>
-      <c r="K283" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K283" s="2"/>
       <c r="L283" s="0" t="s">
         <v>21</v>
       </c>
@@ -15334,10 +14695,7 @@
       <c r="J284" s="0" t="s">
         <v>661</v>
       </c>
-      <c r="K284" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K284" s="2"/>
       <c r="L284" s="0" t="s">
         <v>21</v>
       </c>
@@ -15376,8 +14734,7 @@
       <c r="J285" s="0" t="s">
         <v>666</v>
       </c>
-      <c r="K285" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K285" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L285" s="0" t="s">
@@ -15418,10 +14775,7 @@
       <c r="J286" s="0" t="s">
         <v>666</v>
       </c>
-      <c r="K286" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K286" s="2"/>
       <c r="L286" s="0" t="s">
         <v>21</v>
       </c>
@@ -15460,10 +14814,7 @@
       <c r="J287" s="0" t="s">
         <v>666</v>
       </c>
-      <c r="K287" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K287" s="2"/>
       <c r="L287" s="0" t="s">
         <v>21</v>
       </c>
@@ -15502,8 +14853,7 @@
       <c r="J288" s="0" t="s">
         <v>672</v>
       </c>
-      <c r="K288" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K288" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L288" s="0" t="s">
@@ -15544,10 +14894,7 @@
       <c r="J289" s="0" t="s">
         <v>672</v>
       </c>
-      <c r="K289" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K289" s="2"/>
       <c r="L289" s="0" t="s">
         <v>21</v>
       </c>
@@ -15586,10 +14933,7 @@
       <c r="J290" s="0" t="s">
         <v>672</v>
       </c>
-      <c r="K290" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K290" s="2"/>
       <c r="L290" s="0" t="s">
         <v>21</v>
       </c>
@@ -15628,8 +14972,7 @@
       <c r="J291" s="0" t="s">
         <v>680</v>
       </c>
-      <c r="K291" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K291" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L291" s="0" t="s">
@@ -15670,10 +15013,7 @@
       <c r="J292" s="0" t="s">
         <v>680</v>
       </c>
-      <c r="K292" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K292" s="2"/>
       <c r="L292" s="0" t="s">
         <v>21</v>
       </c>
@@ -15712,10 +15052,7 @@
       <c r="J293" s="0" t="s">
         <v>680</v>
       </c>
-      <c r="K293" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K293" s="2"/>
       <c r="L293" s="0" t="s">
         <v>21</v>
       </c>
@@ -15754,8 +15091,7 @@
       <c r="J294" s="0" t="s">
         <v>687</v>
       </c>
-      <c r="K294" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K294" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L294" s="0" t="s">
@@ -15796,10 +15132,7 @@
       <c r="J295" s="0" t="s">
         <v>687</v>
       </c>
-      <c r="K295" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K295" s="2"/>
       <c r="L295" s="0" t="s">
         <v>21</v>
       </c>
@@ -15838,10 +15171,7 @@
       <c r="J296" s="0" t="s">
         <v>687</v>
       </c>
-      <c r="K296" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K296" s="2"/>
       <c r="L296" s="0" t="s">
         <v>21</v>
       </c>
@@ -15880,8 +15210,7 @@
       <c r="J297" s="0" t="s">
         <v>693</v>
       </c>
-      <c r="K297" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K297" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L297" s="0" t="s">
@@ -15922,10 +15251,7 @@
       <c r="J298" s="0" t="s">
         <v>693</v>
       </c>
-      <c r="K298" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K298" s="2"/>
       <c r="L298" s="0" t="s">
         <v>21</v>
       </c>
@@ -15964,10 +15290,7 @@
       <c r="J299" s="0" t="s">
         <v>693</v>
       </c>
-      <c r="K299" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K299" s="2"/>
       <c r="L299" s="0" t="s">
         <v>21</v>
       </c>
@@ -16006,8 +15329,7 @@
       <c r="J300" s="0" t="s">
         <v>701</v>
       </c>
-      <c r="K300" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K300" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L300" s="0" t="s">
@@ -16048,10 +15370,7 @@
       <c r="J301" s="0" t="s">
         <v>701</v>
       </c>
-      <c r="K301" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K301" s="2"/>
       <c r="L301" s="0" t="s">
         <v>21</v>
       </c>
@@ -16090,10 +15409,7 @@
       <c r="J302" s="0" t="s">
         <v>701</v>
       </c>
-      <c r="K302" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K302" s="2"/>
       <c r="L302" s="0" t="s">
         <v>21</v>
       </c>
@@ -16132,8 +15448,7 @@
       <c r="J303" s="0" t="s">
         <v>708</v>
       </c>
-      <c r="K303" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K303" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L303" s="0" t="s">
@@ -16174,10 +15489,7 @@
       <c r="J304" s="0" t="s">
         <v>708</v>
       </c>
-      <c r="K304" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K304" s="2"/>
       <c r="L304" s="0" t="s">
         <v>21</v>
       </c>
@@ -16216,10 +15528,7 @@
       <c r="J305" s="0" t="s">
         <v>708</v>
       </c>
-      <c r="K305" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K305" s="2"/>
       <c r="L305" s="0" t="s">
         <v>21</v>
       </c>
@@ -16258,8 +15567,7 @@
       <c r="J306" s="0" t="s">
         <v>714</v>
       </c>
-      <c r="K306" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K306" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L306" s="0" t="s">
@@ -16300,10 +15608,7 @@
       <c r="J307" s="0" t="s">
         <v>714</v>
       </c>
-      <c r="K307" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K307" s="2"/>
       <c r="L307" s="0" t="s">
         <v>21</v>
       </c>
@@ -16342,10 +15647,7 @@
       <c r="J308" s="0" t="s">
         <v>714</v>
       </c>
-      <c r="K308" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K308" s="2"/>
       <c r="L308" s="0" t="s">
         <v>21</v>
       </c>
@@ -16384,8 +15686,7 @@
       <c r="J309" s="0" t="s">
         <v>722</v>
       </c>
-      <c r="K309" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K309" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L309" s="0" t="s">
@@ -16426,10 +15727,7 @@
       <c r="J310" s="0" t="s">
         <v>722</v>
       </c>
-      <c r="K310" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K310" s="2"/>
       <c r="L310" s="0" t="s">
         <v>21</v>
       </c>
@@ -16468,10 +15766,7 @@
       <c r="J311" s="0" t="s">
         <v>722</v>
       </c>
-      <c r="K311" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K311" s="2"/>
       <c r="L311" s="0" t="s">
         <v>21</v>
       </c>
@@ -16510,8 +15805,7 @@
       <c r="J312" s="0" t="s">
         <v>729</v>
       </c>
-      <c r="K312" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K312" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L312" s="0" t="s">
@@ -16552,10 +15846,7 @@
       <c r="J313" s="0" t="s">
         <v>729</v>
       </c>
-      <c r="K313" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K313" s="2"/>
       <c r="L313" s="0" t="s">
         <v>21</v>
       </c>
@@ -16594,10 +15885,7 @@
       <c r="J314" s="0" t="s">
         <v>729</v>
       </c>
-      <c r="K314" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K314" s="2"/>
       <c r="L314" s="0" t="s">
         <v>21</v>
       </c>
@@ -16636,8 +15924,7 @@
       <c r="J315" s="0" t="s">
         <v>735</v>
       </c>
-      <c r="K315" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K315" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L315" s="0" t="s">
@@ -16678,10 +15965,7 @@
       <c r="J316" s="0" t="s">
         <v>735</v>
       </c>
-      <c r="K316" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K316" s="2"/>
       <c r="L316" s="0" t="s">
         <v>21</v>
       </c>
@@ -16720,10 +16004,7 @@
       <c r="J317" s="0" t="s">
         <v>735</v>
       </c>
-      <c r="K317" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K317" s="2"/>
       <c r="L317" s="0" t="s">
         <v>21</v>
       </c>
@@ -16762,8 +16043,7 @@
       <c r="J318" s="0" t="s">
         <v>741</v>
       </c>
-      <c r="K318" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K318" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L318" s="0" t="s">
@@ -16804,10 +16084,7 @@
       <c r="J319" s="0" t="s">
         <v>741</v>
       </c>
-      <c r="K319" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K319" s="2"/>
       <c r="L319" s="0" t="s">
         <v>21</v>
       </c>
@@ -16846,10 +16123,7 @@
       <c r="J320" s="0" t="s">
         <v>741</v>
       </c>
-      <c r="K320" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K320" s="2"/>
       <c r="L320" s="0" t="s">
         <v>21</v>
       </c>
@@ -16888,8 +16162,7 @@
       <c r="J321" s="0" t="s">
         <v>746</v>
       </c>
-      <c r="K321" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K321" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L321" s="0" t="s">
@@ -16930,10 +16203,7 @@
       <c r="J322" s="0" t="s">
         <v>746</v>
       </c>
-      <c r="K322" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K322" s="2"/>
       <c r="L322" s="0" t="s">
         <v>21</v>
       </c>
@@ -16972,10 +16242,7 @@
       <c r="J323" s="0" t="s">
         <v>746</v>
       </c>
-      <c r="K323" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K323" s="2"/>
       <c r="L323" s="0" t="s">
         <v>21</v>
       </c>
@@ -17014,8 +16281,7 @@
       <c r="J324" s="0" t="s">
         <v>752</v>
       </c>
-      <c r="K324" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K324" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L324" s="0" t="s">
@@ -17056,10 +16322,7 @@
       <c r="J325" s="0" t="s">
         <v>752</v>
       </c>
-      <c r="K325" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K325" s="2"/>
       <c r="L325" s="0" t="s">
         <v>21</v>
       </c>
@@ -17098,10 +16361,7 @@
       <c r="J326" s="0" t="s">
         <v>752</v>
       </c>
-      <c r="K326" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K326" s="2"/>
       <c r="L326" s="0" t="s">
         <v>21</v>
       </c>
@@ -17140,8 +16400,7 @@
       <c r="J327" s="0" t="s">
         <v>757</v>
       </c>
-      <c r="K327" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K327" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L327" s="0" t="s">
@@ -17182,10 +16441,7 @@
       <c r="J328" s="0" t="s">
         <v>757</v>
       </c>
-      <c r="K328" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K328" s="2"/>
       <c r="L328" s="0" t="s">
         <v>21</v>
       </c>
@@ -17224,10 +16480,7 @@
       <c r="J329" s="0" t="s">
         <v>757</v>
       </c>
-      <c r="K329" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K329" s="2"/>
       <c r="L329" s="0" t="s">
         <v>21</v>
       </c>
@@ -17266,8 +16519,7 @@
       <c r="J330" s="0" t="s">
         <v>763</v>
       </c>
-      <c r="K330" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K330" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L330" s="0" t="s">
@@ -17308,10 +16560,7 @@
       <c r="J331" s="0" t="s">
         <v>763</v>
       </c>
-      <c r="K331" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K331" s="2"/>
       <c r="L331" s="0" t="s">
         <v>21</v>
       </c>
@@ -17350,10 +16599,7 @@
       <c r="J332" s="0" t="s">
         <v>763</v>
       </c>
-      <c r="K332" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K332" s="2"/>
       <c r="L332" s="0" t="s">
         <v>21</v>
       </c>
@@ -17392,8 +16638,7 @@
       <c r="J333" s="0" t="s">
         <v>767</v>
       </c>
-      <c r="K333" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K333" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L333" s="0" t="s">
@@ -17434,10 +16679,7 @@
       <c r="J334" s="0" t="s">
         <v>767</v>
       </c>
-      <c r="K334" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K334" s="2"/>
       <c r="L334" s="0" t="s">
         <v>21</v>
       </c>
@@ -17476,10 +16718,7 @@
       <c r="J335" s="0" t="s">
         <v>767</v>
       </c>
-      <c r="K335" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K335" s="2"/>
       <c r="L335" s="0" t="s">
         <v>21</v>
       </c>
@@ -17518,8 +16757,7 @@
       <c r="J336" s="0" t="s">
         <v>771</v>
       </c>
-      <c r="K336" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K336" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L336" s="0" t="s">
@@ -17560,10 +16798,7 @@
       <c r="J337" s="0" t="s">
         <v>771</v>
       </c>
-      <c r="K337" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K337" s="2"/>
       <c r="L337" s="0" t="s">
         <v>21</v>
       </c>
@@ -17602,10 +16837,7 @@
       <c r="J338" s="0" t="s">
         <v>771</v>
       </c>
-      <c r="K338" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K338" s="2"/>
       <c r="L338" s="0" t="s">
         <v>21</v>
       </c>
@@ -17644,8 +16876,7 @@
       <c r="J339" s="0" t="s">
         <v>776</v>
       </c>
-      <c r="K339" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K339" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L339" s="0" t="s">
@@ -17686,10 +16917,7 @@
       <c r="J340" s="0" t="s">
         <v>776</v>
       </c>
-      <c r="K340" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K340" s="2"/>
       <c r="L340" s="0" t="s">
         <v>21</v>
       </c>
@@ -17728,10 +16956,7 @@
       <c r="J341" s="0" t="s">
         <v>776</v>
       </c>
-      <c r="K341" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K341" s="2"/>
       <c r="L341" s="0" t="s">
         <v>21</v>
       </c>
@@ -17770,8 +16995,7 @@
       <c r="J342" s="0" t="s">
         <v>782</v>
       </c>
-      <c r="K342" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K342" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L342" s="0" t="s">
@@ -17812,10 +17036,7 @@
       <c r="J343" s="0" t="s">
         <v>782</v>
       </c>
-      <c r="K343" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K343" s="2"/>
       <c r="L343" s="0" t="s">
         <v>21</v>
       </c>
@@ -17854,10 +17075,7 @@
       <c r="J344" s="0" t="s">
         <v>782</v>
       </c>
-      <c r="K344" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K344" s="2"/>
       <c r="L344" s="0" t="s">
         <v>21</v>
       </c>
@@ -17896,8 +17114,7 @@
       <c r="J345" s="0" t="s">
         <v>787</v>
       </c>
-      <c r="K345" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K345" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L345" s="0" t="s">
@@ -17938,10 +17155,7 @@
       <c r="J346" s="0" t="s">
         <v>787</v>
       </c>
-      <c r="K346" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K346" s="2"/>
       <c r="L346" s="0" t="s">
         <v>21</v>
       </c>
@@ -17980,10 +17194,7 @@
       <c r="J347" s="0" t="s">
         <v>787</v>
       </c>
-      <c r="K347" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K347" s="2"/>
       <c r="L347" s="0" t="s">
         <v>21</v>
       </c>
@@ -18022,8 +17233,7 @@
       <c r="J348" s="0" t="s">
         <v>793</v>
       </c>
-      <c r="K348" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K348" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L348" s="0" t="s">
@@ -18064,10 +17274,7 @@
       <c r="J349" s="0" t="s">
         <v>793</v>
       </c>
-      <c r="K349" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K349" s="2"/>
       <c r="L349" s="0" t="s">
         <v>21</v>
       </c>
@@ -18106,10 +17313,7 @@
       <c r="J350" s="0" t="s">
         <v>793</v>
       </c>
-      <c r="K350" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K350" s="2"/>
       <c r="L350" s="0" t="s">
         <v>21</v>
       </c>
@@ -18148,8 +17352,7 @@
       <c r="J351" s="0" t="s">
         <v>798</v>
       </c>
-      <c r="K351" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K351" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L351" s="0" t="s">
@@ -18190,10 +17393,7 @@
       <c r="J352" s="0" t="s">
         <v>798</v>
       </c>
-      <c r="K352" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K352" s="2"/>
       <c r="L352" s="0" t="s">
         <v>21</v>
       </c>
@@ -18232,10 +17432,7 @@
       <c r="J353" s="0" t="s">
         <v>798</v>
       </c>
-      <c r="K353" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K353" s="2"/>
       <c r="L353" s="0" t="s">
         <v>21</v>
       </c>
@@ -18274,8 +17471,7 @@
       <c r="J354" s="0" t="s">
         <v>804</v>
       </c>
-      <c r="K354" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K354" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L354" s="0" t="s">
@@ -18316,10 +17512,7 @@
       <c r="J355" s="0" t="s">
         <v>804</v>
       </c>
-      <c r="K355" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K355" s="2"/>
       <c r="L355" s="0" t="s">
         <v>21</v>
       </c>
@@ -18358,10 +17551,7 @@
       <c r="J356" s="0" t="s">
         <v>804</v>
       </c>
-      <c r="K356" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K356" s="2"/>
       <c r="L356" s="0" t="s">
         <v>21</v>
       </c>
@@ -18400,8 +17590,7 @@
       <c r="J357" s="0" t="s">
         <v>809</v>
       </c>
-      <c r="K357" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K357" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L357" s="0" t="s">
@@ -18442,10 +17631,7 @@
       <c r="J358" s="0" t="s">
         <v>809</v>
       </c>
-      <c r="K358" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K358" s="2"/>
       <c r="L358" s="0" t="s">
         <v>21</v>
       </c>
@@ -18484,10 +17670,7 @@
       <c r="J359" s="0" t="s">
         <v>809</v>
       </c>
-      <c r="K359" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K359" s="2"/>
       <c r="L359" s="0" t="s">
         <v>21</v>
       </c>
@@ -18526,8 +17709,7 @@
       <c r="J360" s="0" t="s">
         <v>815</v>
       </c>
-      <c r="K360" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K360" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L360" s="0" t="s">
@@ -18568,10 +17750,7 @@
       <c r="J361" s="0" t="s">
         <v>815</v>
       </c>
-      <c r="K361" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K361" s="2"/>
       <c r="L361" s="0" t="s">
         <v>21</v>
       </c>
@@ -18610,10 +17789,7 @@
       <c r="J362" s="0" t="s">
         <v>815</v>
       </c>
-      <c r="K362" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K362" s="2"/>
       <c r="L362" s="0" t="s">
         <v>21</v>
       </c>
@@ -18652,8 +17828,7 @@
       <c r="J363" s="0" t="s">
         <v>822</v>
       </c>
-      <c r="K363" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K363" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L363" s="0" t="s">
@@ -18694,10 +17869,7 @@
       <c r="J364" s="0" t="s">
         <v>822</v>
       </c>
-      <c r="K364" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K364" s="2"/>
       <c r="L364" s="0" t="s">
         <v>21</v>
       </c>
@@ -18736,10 +17908,7 @@
       <c r="J365" s="0" t="s">
         <v>822</v>
       </c>
-      <c r="K365" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K365" s="2"/>
       <c r="L365" s="0" t="s">
         <v>21</v>
       </c>
@@ -18778,8 +17947,7 @@
       <c r="J366" s="0" t="s">
         <v>829</v>
       </c>
-      <c r="K366" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K366" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L366" s="0" t="s">
@@ -18820,10 +17988,7 @@
       <c r="J367" s="0" t="s">
         <v>829</v>
       </c>
-      <c r="K367" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K367" s="2"/>
       <c r="L367" s="0" t="s">
         <v>21</v>
       </c>
@@ -18862,10 +18027,7 @@
       <c r="J368" s="0" t="s">
         <v>829</v>
       </c>
-      <c r="K368" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K368" s="2"/>
       <c r="L368" s="0" t="s">
         <v>21</v>
       </c>
@@ -18904,8 +18066,7 @@
       <c r="J369" s="0" t="s">
         <v>835</v>
       </c>
-      <c r="K369" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K369" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L369" s="0" t="s">
@@ -18946,10 +18107,7 @@
       <c r="J370" s="0" t="s">
         <v>835</v>
       </c>
-      <c r="K370" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K370" s="2"/>
       <c r="L370" s="0" t="s">
         <v>21</v>
       </c>
@@ -18988,10 +18146,7 @@
       <c r="J371" s="0" t="s">
         <v>835</v>
       </c>
-      <c r="K371" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K371" s="2"/>
       <c r="L371" s="0" t="s">
         <v>21</v>
       </c>
@@ -19030,8 +18185,7 @@
       <c r="J372" s="0" t="s">
         <v>840</v>
       </c>
-      <c r="K372" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K372" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L372" s="0" t="s">
@@ -19072,10 +18226,7 @@
       <c r="J373" s="0" t="s">
         <v>840</v>
       </c>
-      <c r="K373" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K373" s="2"/>
       <c r="L373" s="0" t="s">
         <v>21</v>
       </c>
@@ -19114,10 +18265,7 @@
       <c r="J374" s="0" t="s">
         <v>840</v>
       </c>
-      <c r="K374" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K374" s="2"/>
       <c r="L374" s="0" t="s">
         <v>21</v>
       </c>
@@ -19156,8 +18304,7 @@
       <c r="J375" s="0" t="s">
         <v>847</v>
       </c>
-      <c r="K375" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K375" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L375" s="0" t="s">
@@ -19198,10 +18345,7 @@
       <c r="J376" s="0" t="s">
         <v>847</v>
       </c>
-      <c r="K376" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K376" s="2"/>
       <c r="L376" s="0" t="s">
         <v>21</v>
       </c>
@@ -19240,10 +18384,7 @@
       <c r="J377" s="0" t="s">
         <v>847</v>
       </c>
-      <c r="K377" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K377" s="2"/>
       <c r="L377" s="0" t="s">
         <v>21</v>
       </c>
@@ -19282,8 +18423,7 @@
       <c r="J378" s="0" t="s">
         <v>854</v>
       </c>
-      <c r="K378" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K378" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L378" s="0" t="s">
@@ -19324,10 +18464,7 @@
       <c r="J379" s="0" t="s">
         <v>854</v>
       </c>
-      <c r="K379" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K379" s="2"/>
       <c r="L379" s="0" t="s">
         <v>21</v>
       </c>
@@ -19366,10 +18503,7 @@
       <c r="J380" s="0" t="s">
         <v>854</v>
       </c>
-      <c r="K380" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K380" s="2"/>
       <c r="L380" s="0" t="s">
         <v>21</v>
       </c>
@@ -19408,8 +18542,7 @@
       <c r="J381" s="0" t="s">
         <v>860</v>
       </c>
-      <c r="K381" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K381" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L381" s="0" t="s">
@@ -19450,10 +18583,7 @@
       <c r="J382" s="0" t="s">
         <v>860</v>
       </c>
-      <c r="K382" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K382" s="2"/>
       <c r="L382" s="0" t="s">
         <v>21</v>
       </c>
@@ -19492,10 +18622,7 @@
       <c r="J383" s="0" t="s">
         <v>860</v>
       </c>
-      <c r="K383" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K383" s="2"/>
       <c r="L383" s="0" t="s">
         <v>21</v>
       </c>
@@ -19534,8 +18661,7 @@
       <c r="J384" s="0" t="s">
         <v>865</v>
       </c>
-      <c r="K384" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K384" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L384" s="0" t="s">
@@ -19576,10 +18702,7 @@
       <c r="J385" s="0" t="s">
         <v>865</v>
       </c>
-      <c r="K385" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K385" s="2"/>
       <c r="L385" s="0" t="s">
         <v>21</v>
       </c>
@@ -19618,10 +18741,7 @@
       <c r="J386" s="0" t="s">
         <v>865</v>
       </c>
-      <c r="K386" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K386" s="2"/>
       <c r="L386" s="0" t="s">
         <v>21</v>
       </c>
@@ -19660,8 +18780,7 @@
       <c r="J387" s="0" t="s">
         <v>872</v>
       </c>
-      <c r="K387" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K387" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L387" s="0" t="s">
@@ -19702,10 +18821,7 @@
       <c r="J388" s="0" t="s">
         <v>872</v>
       </c>
-      <c r="K388" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K388" s="2"/>
       <c r="L388" s="0" t="s">
         <v>21</v>
       </c>
@@ -19744,10 +18860,7 @@
       <c r="J389" s="0" t="s">
         <v>872</v>
       </c>
-      <c r="K389" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K389" s="2"/>
       <c r="L389" s="0" t="s">
         <v>21</v>
       </c>
@@ -19786,8 +18899,7 @@
       <c r="J390" s="0" t="s">
         <v>878</v>
       </c>
-      <c r="K390" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K390" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L390" s="0" t="s">
@@ -19828,10 +18940,7 @@
       <c r="J391" s="0" t="s">
         <v>878</v>
       </c>
-      <c r="K391" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K391" s="2"/>
       <c r="L391" s="0" t="s">
         <v>21</v>
       </c>
@@ -19870,10 +18979,7 @@
       <c r="J392" s="0" t="s">
         <v>878</v>
       </c>
-      <c r="K392" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K392" s="2"/>
       <c r="L392" s="0" t="s">
         <v>21</v>
       </c>
@@ -19912,8 +19018,7 @@
       <c r="J393" s="0" t="s">
         <v>883</v>
       </c>
-      <c r="K393" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K393" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L393" s="0" t="s">
@@ -19954,10 +19059,7 @@
       <c r="J394" s="0" t="s">
         <v>883</v>
       </c>
-      <c r="K394" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K394" s="2"/>
       <c r="L394" s="0" t="s">
         <v>21</v>
       </c>
@@ -19996,10 +19098,7 @@
       <c r="J395" s="0" t="s">
         <v>883</v>
       </c>
-      <c r="K395" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K395" s="2"/>
       <c r="L395" s="0" t="s">
         <v>21</v>
       </c>
@@ -20038,8 +19137,7 @@
       <c r="J396" s="0" t="s">
         <v>890</v>
       </c>
-      <c r="K396" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K396" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L396" s="0" t="s">
@@ -20080,10 +19178,7 @@
       <c r="J397" s="0" t="s">
         <v>890</v>
       </c>
-      <c r="K397" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K397" s="2"/>
       <c r="L397" s="0" t="s">
         <v>21</v>
       </c>
@@ -20122,10 +19217,7 @@
       <c r="J398" s="0" t="s">
         <v>890</v>
       </c>
-      <c r="K398" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K398" s="2"/>
       <c r="L398" s="0" t="s">
         <v>21</v>
       </c>
@@ -20164,8 +19256,7 @@
       <c r="J399" s="0" t="s">
         <v>897</v>
       </c>
-      <c r="K399" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K399" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L399" s="0" t="s">
@@ -20206,10 +19297,7 @@
       <c r="J400" s="0" t="s">
         <v>897</v>
       </c>
-      <c r="K400" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K400" s="2"/>
       <c r="L400" s="0" t="s">
         <v>21</v>
       </c>
@@ -20248,10 +19336,7 @@
       <c r="J401" s="0" t="s">
         <v>897</v>
       </c>
-      <c r="K401" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K401" s="2"/>
       <c r="L401" s="0" t="s">
         <v>21</v>
       </c>
@@ -20290,8 +19375,7 @@
       <c r="J402" s="0" t="s">
         <v>903</v>
       </c>
-      <c r="K402" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K402" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L402" s="0" t="s">
@@ -20332,10 +19416,7 @@
       <c r="J403" s="0" t="s">
         <v>903</v>
       </c>
-      <c r="K403" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K403" s="2"/>
       <c r="L403" s="0" t="s">
         <v>21</v>
       </c>
@@ -20374,10 +19455,7 @@
       <c r="J404" s="0" t="s">
         <v>903</v>
       </c>
-      <c r="K404" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K404" s="2"/>
       <c r="L404" s="0" t="s">
         <v>21</v>
       </c>
@@ -20416,8 +19494,7 @@
       <c r="J405" s="0" t="s">
         <v>910</v>
       </c>
-      <c r="K405" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K405" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L405" s="0" t="s">
@@ -20458,10 +19535,7 @@
       <c r="J406" s="0" t="s">
         <v>910</v>
       </c>
-      <c r="K406" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K406" s="2"/>
       <c r="L406" s="0" t="s">
         <v>21</v>
       </c>
@@ -20500,10 +19574,7 @@
       <c r="J407" s="0" t="s">
         <v>910</v>
       </c>
-      <c r="K407" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K407" s="2"/>
       <c r="L407" s="0" t="s">
         <v>21</v>
       </c>
@@ -20542,8 +19613,7 @@
       <c r="J408" s="0" t="s">
         <v>916</v>
       </c>
-      <c r="K408" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K408" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L408" s="0" t="s">
@@ -20584,10 +19654,7 @@
       <c r="J409" s="0" t="s">
         <v>916</v>
       </c>
-      <c r="K409" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K409" s="2"/>
       <c r="L409" s="0" t="s">
         <v>21</v>
       </c>
@@ -20626,10 +19693,7 @@
       <c r="J410" s="0" t="s">
         <v>916</v>
       </c>
-      <c r="K410" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K410" s="2"/>
       <c r="L410" s="0" t="s">
         <v>21</v>
       </c>
@@ -20668,8 +19732,7 @@
       <c r="J411" s="0" t="s">
         <v>921</v>
       </c>
-      <c r="K411" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K411" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L411" s="0" t="s">
@@ -20710,10 +19773,7 @@
       <c r="J412" s="0" t="s">
         <v>921</v>
       </c>
-      <c r="K412" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K412" s="2"/>
       <c r="L412" s="0" t="s">
         <v>21</v>
       </c>
@@ -20752,10 +19812,7 @@
       <c r="J413" s="0" t="s">
         <v>921</v>
       </c>
-      <c r="K413" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K413" s="2"/>
       <c r="L413" s="0" t="s">
         <v>21</v>
       </c>
@@ -20794,8 +19851,7 @@
       <c r="J414" s="0" t="s">
         <v>929</v>
       </c>
-      <c r="K414" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K414" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L414" s="0" t="s">
@@ -20836,10 +19892,7 @@
       <c r="J415" s="0" t="s">
         <v>929</v>
       </c>
-      <c r="K415" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K415" s="2"/>
       <c r="L415" s="0" t="s">
         <v>21</v>
       </c>
@@ -20878,10 +19931,7 @@
       <c r="J416" s="0" t="s">
         <v>929</v>
       </c>
-      <c r="K416" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K416" s="2"/>
       <c r="L416" s="0" t="s">
         <v>21</v>
       </c>
@@ -20920,8 +19970,7 @@
       <c r="J417" s="0" t="s">
         <v>937</v>
       </c>
-      <c r="K417" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K417" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L417" s="0" t="s">
@@ -20962,10 +20011,7 @@
       <c r="J418" s="0" t="s">
         <v>937</v>
       </c>
-      <c r="K418" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K418" s="2"/>
       <c r="L418" s="0" t="s">
         <v>21</v>
       </c>
@@ -21004,10 +20050,7 @@
       <c r="J419" s="0" t="s">
         <v>937</v>
       </c>
-      <c r="K419" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K419" s="2"/>
       <c r="L419" s="0" t="s">
         <v>21</v>
       </c>
@@ -21046,8 +20089,7 @@
       <c r="J420" s="0" t="s">
         <v>946</v>
       </c>
-      <c r="K420" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K420" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L420" s="0" t="s">
@@ -21088,10 +20130,7 @@
       <c r="J421" s="0" t="s">
         <v>946</v>
       </c>
-      <c r="K421" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K421" s="2"/>
       <c r="L421" s="0" t="s">
         <v>21</v>
       </c>
@@ -21130,10 +20169,7 @@
       <c r="J422" s="0" t="s">
         <v>946</v>
       </c>
-      <c r="K422" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K422" s="2"/>
       <c r="L422" s="0" t="s">
         <v>21</v>
       </c>
@@ -21159,7 +20195,7 @@
     <row r="428" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K428" s="2"/>
     </row>
-    <row r="429" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
         <v>950</v>
       </c>
@@ -21190,10 +20226,7 @@
       <c r="J429" s="0" t="s">
         <v>955</v>
       </c>
-      <c r="K429" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K429" s="2"/>
       <c r="L429" s="0" t="s">
         <v>21</v>
       </c>
@@ -21201,7 +20234,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
         <v>956</v>
       </c>
@@ -21232,10 +20265,7 @@
       <c r="J430" s="0" t="s">
         <v>960</v>
       </c>
-      <c r="K430" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K430" s="2"/>
       <c r="L430" s="0" t="s">
         <v>21</v>
       </c>
@@ -21243,7 +20273,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
         <v>961</v>
       </c>
@@ -21274,10 +20304,7 @@
       <c r="J431" s="0" t="s">
         <v>965</v>
       </c>
-      <c r="K431" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K431" s="2"/>
       <c r="L431" s="0" t="s">
         <v>21</v>
       </c>
@@ -21285,7 +20312,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
         <v>966</v>
       </c>
@@ -21316,10 +20343,7 @@
       <c r="J432" s="0" t="s">
         <v>970</v>
       </c>
-      <c r="K432" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K432" s="2"/>
       <c r="L432" s="0" t="s">
         <v>21</v>
       </c>
@@ -21327,7 +20351,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
         <v>971</v>
       </c>
@@ -21358,10 +20382,7 @@
       <c r="J433" s="0" t="s">
         <v>975</v>
       </c>
-      <c r="K433" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K433" s="2"/>
       <c r="L433" s="0" t="s">
         <v>21</v>
       </c>
@@ -21369,7 +20390,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
         <v>976</v>
       </c>
@@ -21400,10 +20421,7 @@
       <c r="J434" s="0" t="s">
         <v>977</v>
       </c>
-      <c r="K434" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K434" s="2"/>
       <c r="L434" s="0" t="s">
         <v>21</v>
       </c>
@@ -21411,7 +20429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
         <v>980</v>
       </c>
@@ -21442,8 +20460,7 @@
       <c r="J435" s="0" t="s">
         <v>984</v>
       </c>
-      <c r="K435" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K435" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L435" s="0" t="s">
@@ -21453,7 +20470,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="4" t="n">
         <v>1269</v>
       </c>
@@ -21484,10 +20501,7 @@
       <c r="J436" s="0" t="s">
         <v>984</v>
       </c>
-      <c r="K436" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K436" s="2"/>
       <c r="L436" s="0" t="s">
         <v>21</v>
       </c>
@@ -21495,7 +20509,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
         <v>980</v>
       </c>
@@ -21526,10 +20540,7 @@
       <c r="J437" s="0" t="s">
         <v>984</v>
       </c>
-      <c r="K437" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K437" s="2"/>
       <c r="L437" s="0" t="s">
         <v>21</v>
       </c>
@@ -21537,7 +20548,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
         <v>989</v>
       </c>
@@ -21568,8 +20579,7 @@
       <c r="J438" s="0" t="s">
         <v>992</v>
       </c>
-      <c r="K438" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K438" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L438" s="0" t="s">
@@ -21579,7 +20589,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="180" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="162.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
         <v>989</v>
       </c>
@@ -21610,10 +20620,7 @@
       <c r="J439" s="0" t="s">
         <v>992</v>
       </c>
-      <c r="K439" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K439" s="2"/>
       <c r="L439" s="0" t="s">
         <v>21</v>
       </c>
@@ -21621,7 +20628,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="90" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
         <v>989</v>
       </c>
@@ -21652,10 +20659,7 @@
       <c r="J440" s="0" t="s">
         <v>992</v>
       </c>
-      <c r="K440" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K440" s="2"/>
       <c r="L440" s="0" t="s">
         <v>21</v>
       </c>
@@ -21663,7 +20667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
         <v>997</v>
       </c>
@@ -21691,8 +20695,7 @@
       <c r="J441" s="0" t="s">
         <v>999</v>
       </c>
-      <c r="K441" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K441" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L441" s="0" t="s">
@@ -21702,7 +20705,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="150" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
         <v>997</v>
       </c>
@@ -21733,10 +20736,7 @@
       <c r="J442" s="0" t="s">
         <v>999</v>
       </c>
-      <c r="K442" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K442" s="2"/>
       <c r="L442" s="0" t="s">
         <v>21</v>
       </c>
@@ -21744,7 +20744,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="s">
         <v>997</v>
       </c>
@@ -21772,10 +20772,7 @@
       <c r="J443" s="0" t="s">
         <v>999</v>
       </c>
-      <c r="K443" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K443" s="2"/>
       <c r="L443" s="0" t="s">
         <v>21</v>
       </c>
@@ -21783,7 +20780,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
         <v>1003</v>
       </c>
@@ -21814,8 +20811,7 @@
       <c r="J444" s="0" t="s">
         <v>1005</v>
       </c>
-      <c r="K444" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K444" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L444" s="0" t="s">
@@ -21825,7 +20821,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
         <v>1003</v>
       </c>
@@ -21856,10 +20852,7 @@
       <c r="J445" s="0" t="s">
         <v>1005</v>
       </c>
-      <c r="K445" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K445" s="2"/>
       <c r="L445" s="0" t="s">
         <v>21</v>
       </c>
@@ -21867,7 +20860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
         <v>1003</v>
       </c>
@@ -21898,10 +20891,7 @@
       <c r="J446" s="0" t="s">
         <v>1005</v>
       </c>
-      <c r="K446" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K446" s="2"/>
       <c r="L446" s="0" t="s">
         <v>21</v>
       </c>
@@ -21909,7 +20899,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
         <v>1008</v>
       </c>
@@ -21940,8 +20930,7 @@
       <c r="J447" s="0" t="s">
         <v>1010</v>
       </c>
-      <c r="K447" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K447" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L447" s="0" t="s">
@@ -21951,7 +20940,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
         <v>1008</v>
       </c>
@@ -21982,10 +20971,7 @@
       <c r="J448" s="0" t="s">
         <v>1010</v>
       </c>
-      <c r="K448" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K448" s="2"/>
       <c r="L448" s="0" t="s">
         <v>21</v>
       </c>
@@ -21993,7 +20979,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
         <v>1008</v>
       </c>
@@ -22024,10 +21010,7 @@
       <c r="J449" s="0" t="s">
         <v>1010</v>
       </c>
-      <c r="K449" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K449" s="2"/>
       <c r="L449" s="0" t="s">
         <v>21</v>
       </c>
@@ -22035,7 +21018,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
         <v>1013</v>
       </c>
@@ -22066,8 +21049,7 @@
       <c r="J450" s="0" t="s">
         <v>1015</v>
       </c>
-      <c r="K450" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K450" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L450" s="0" t="s">
@@ -22077,7 +21059,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
         <v>1013</v>
       </c>
@@ -22108,10 +21090,7 @@
       <c r="J451" s="0" t="s">
         <v>1015</v>
       </c>
-      <c r="K451" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K451" s="2"/>
       <c r="L451" s="0" t="s">
         <v>21</v>
       </c>
@@ -22119,7 +21098,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
         <v>1013</v>
       </c>
@@ -22150,10 +21129,7 @@
       <c r="J452" s="0" t="s">
         <v>1015</v>
       </c>
-      <c r="K452" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K452" s="2"/>
       <c r="L452" s="0" t="s">
         <v>21</v>
       </c>
@@ -22161,7 +21137,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="s">
         <v>1018</v>
       </c>
@@ -22192,8 +21168,7 @@
       <c r="J453" s="0" t="s">
         <v>1020</v>
       </c>
-      <c r="K453" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K453" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L453" s="0" t="s">
@@ -22203,7 +21178,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="454" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
         <v>1018</v>
       </c>
@@ -22234,10 +21209,7 @@
       <c r="J454" s="0" t="s">
         <v>1020</v>
       </c>
-      <c r="K454" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K454" s="2"/>
       <c r="L454" s="0" t="s">
         <v>21</v>
       </c>
@@ -22245,7 +21217,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
         <v>1018</v>
       </c>
@@ -22276,10 +21248,7 @@
       <c r="J455" s="0" t="s">
         <v>1020</v>
       </c>
-      <c r="K455" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K455" s="2"/>
       <c r="L455" s="0" t="s">
         <v>21</v>
       </c>
@@ -22287,7 +21256,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
         <v>1023</v>
       </c>
@@ -22318,8 +21287,7 @@
       <c r="J456" s="0" t="s">
         <v>1025</v>
       </c>
-      <c r="K456" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K456" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L456" s="0" t="s">
@@ -22329,7 +21297,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
         <v>1023</v>
       </c>
@@ -22360,10 +21328,7 @@
       <c r="J457" s="0" t="s">
         <v>1025</v>
       </c>
-      <c r="K457" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K457" s="2"/>
       <c r="L457" s="0" t="s">
         <v>21</v>
       </c>
@@ -22371,7 +21336,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="s">
         <v>1023</v>
       </c>
@@ -22402,10 +21367,7 @@
       <c r="J458" s="0" t="s">
         <v>1025</v>
       </c>
-      <c r="K458" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K458" s="2"/>
       <c r="L458" s="0" t="s">
         <v>21</v>
       </c>
@@ -22413,7 +21375,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="s">
         <v>1028</v>
       </c>
@@ -22444,8 +21406,7 @@
       <c r="J459" s="0" t="s">
         <v>1030</v>
       </c>
-      <c r="K459" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K459" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L459" s="0" t="s">
@@ -22455,7 +21416,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
         <v>1028</v>
       </c>
@@ -22486,10 +21447,7 @@
       <c r="J460" s="0" t="s">
         <v>1030</v>
       </c>
-      <c r="K460" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K460" s="2"/>
       <c r="L460" s="0" t="s">
         <v>21</v>
       </c>
@@ -22497,7 +21455,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
         <v>1028</v>
       </c>
@@ -22528,10 +21486,7 @@
       <c r="J461" s="0" t="s">
         <v>1030</v>
       </c>
-      <c r="K461" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K461" s="2"/>
       <c r="L461" s="0" t="s">
         <v>21</v>
       </c>
@@ -22539,7 +21494,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
         <v>1033</v>
       </c>
@@ -22570,8 +21525,7 @@
       <c r="J462" s="0" t="s">
         <v>1035</v>
       </c>
-      <c r="K462" s="2" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K462" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L462" s="0" t="s">
@@ -22581,7 +21535,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
         <v>1033</v>
       </c>
@@ -22612,10 +21566,7 @@
       <c r="J463" s="0" t="s">
         <v>1035</v>
       </c>
-      <c r="K463" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K463" s="2"/>
       <c r="L463" s="0" t="s">
         <v>21</v>
       </c>
@@ -22623,7 +21574,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
         <v>1033</v>
       </c>
@@ -22654,10 +21605,7 @@
       <c r="J464" s="0" t="s">
         <v>1035</v>
       </c>
-      <c r="K464" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="K464" s="2"/>
       <c r="L464" s="0" t="s">
         <v>21</v>
       </c>
@@ -22665,7 +21613,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="4" t="n">
         <v>1281</v>
       </c>
@@ -22696,8 +21644,7 @@
       <c r="J465" s="0" t="s">
         <v>1040</v>
       </c>
-      <c r="K465" s="0" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K465" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L465" s="0" t="s">

--- a/mosip_master/xlsx/template.xlsx
+++ b/mosip_master/xlsx/template.xlsx
@@ -3904,11 +3904,11 @@
   </sheetPr>
   <dimension ref="A1:M467"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J456" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K473" activeCellId="0" sqref="K473"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.57"/>
@@ -21654,7 +21654,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="4" t="n">
         <v>1281</v>
       </c>
@@ -21685,8 +21685,7 @@
       <c r="J466" s="0" t="s">
         <v>1040</v>
       </c>
-      <c r="K466" s="0" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K466" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L466" s="0" t="s">
@@ -21696,7 +21695,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="4" t="n">
         <v>1281</v>
       </c>
@@ -21727,8 +21726,7 @@
       <c r="J467" s="0" t="s">
         <v>1040</v>
       </c>
-      <c r="K467" s="0" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K467" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L467" s="0" t="s">

--- a/mosip_master/xlsx/template.xlsx
+++ b/mosip_master/xlsx/template.xlsx
@@ -82,7 +82,7 @@
     <t xml:space="preserve">auth-email-content</t>
   </si>
   <si>
-    <t xml:space="preserve">'true’</t>
+    <t xml:space="preserve">\'true\’</t>
   </si>
   <si>
     <t xml:space="preserve">superadmin</t>
@@ -1362,8 +1362,8 @@
   </sheetPr>
   <dimension ref="A1:M142"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K142"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K142" activeCellId="0" sqref="K2:K142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
